--- a/biology/Zoologie/Creodonta/Creodonta.xlsx
+++ b/biology/Zoologie/Creodonta/Creodonta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Créodontes (Creodonta) sont un ordre éteint de mammifères placentaires laurasiathériens. Ils ont vécu du Paléocène au Pliocène. Prédateurs terrestres les plus dominants de 63.3 à 11,1 million d'années[1], ils ont été remplacés dans l'occupation de leur niche écologique par l'ordre des Carnivores (félidés, canidés, etc.) dont ils sont très proches, car partageant un ancêtre commun[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Créodontes (Creodonta) sont un ordre éteint de mammifères placentaires laurasiathériens. Ils ont vécu du Paléocène au Pliocène. Prédateurs terrestres les plus dominants de 63.3 à 11,1 million d'années, ils ont été remplacés dans l'occupation de leur niche écologique par l'ordre des Carnivores (félidés, canidés, etc.) dont ils sont très proches, car partageant un ancêtre commun.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description physique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que partageant un ancêtre commun avec les Carnivores, ils s'en différenciaient par leur morphologie. Leur cerveau était plus petit et l'enveloppe osseuse de l'oreille moyenne était absente. Leurs dentures étaient également différentes. Chez les créodontes, la première ou la deuxième molaire supérieure et la deuxième ou la troisième molaire inférieure formaient les dents carnassières tranchantes alors que, chez les carnivores, ce sont la quatrième pré-molaire supérieure et la première molaire inférieure qui jouent ce rôle. Ils ont cependant en commun des canines développées et des griffes puissantes.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">† Hyaenodontidae
 † Oxyaenidae
@@ -579,7 +595,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les créodontes sont apparus à la fin du Paléocène et ont été les prédateurs dominants pendant tout l'Éocène et l'Oligocène. Ils ont peuplé sous plusieurs formes l'Amérique du Nord, l'Eurasie, l'Afrique du Sud et leur taille a varié de celle d'une loutre à celle d'un bison. Au Miocène, ils ont peu à peu été supplantés par les carnivores, plus intelligents et plus spécialisés. Leur dernier représentant connu, le Dissopsalis (en), a disparu il y a 8 Ma.
 Les raisons de leur extinction complète sont inconnues.
